--- a/Source/Data/Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Provinsi.xlsx
+++ b/Source/Data/Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Provinsi.xlsx
@@ -5,22 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\Git Project\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6C75A-672F-475D-A6F9-B1ADCBCF2036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3EC9BE-12C6-4ED6-9D66-B9FCFA1C38F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="291">
   <si>
     <t>Provinsi</t>
   </si>
@@ -940,11 +941,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,11 +1284,939 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D72BD9-7409-4711-A1BB-AE7C3679E407}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="A1:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1297,28 +2226,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2233,14 +3162,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">

--- a/Source/Data/Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Provinsi.xlsx
+++ b/Source/Data/Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Provinsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\Git Project\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3EC9BE-12C6-4ED6-9D66-B9FCFA1C38F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6438CC-91E1-4EC8-A878-6F8DB031D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="291">
   <si>
     <t>Provinsi</t>
   </si>
@@ -1285,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D72BD9-7409-4711-A1BB-AE7C3679E407}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2206,6 +2206,32 @@
         <v>285</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>287</v>
+      </c>
+      <c r="H36" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2216,7 +2242,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="A1:H36"/>
+      <selection activeCell="B36" sqref="B36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Source/Data/Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Provinsi.xlsx
+++ b/Source/Data/Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Provinsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\Git Project\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6438CC-91E1-4EC8-A878-6F8DB031D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2378D-FD34-4731-8B54-2D6F040FA86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="292">
   <si>
     <t>Provinsi</t>
   </si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>Source Url: https://www.bps.go.id/indicator/28/1447/2/proporsi-remaja-dan-dewasa-usia-15-59-tahun-dengan-keterampilan-teknologi-informasi-dan-komputer-tik-menurut-provinsi.html</t>
+  </si>
+  <si>
+    <t>RATA-RATA INDONESIA</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D72BD9-7409-4711-A1BB-AE7C3679E407}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2208,7 +2211,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
